--- a/檢查JS用.xlsx
+++ b/檢查JS用.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="207">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,14 +47,6 @@
   </si>
   <si>
     <t>結果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1092,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G98"/>
+  <dimension ref="B1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1095,7 @@
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -1116,1078 +1108,1072 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/檢查JS用.xlsx
+++ b/檢查JS用.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="211">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -755,13 +755,29 @@
   </si>
   <si>
     <t>/lottery/CTBSC/CTXYFT</t>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ytau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwe123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1084,18 +1100,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E98"/>
+  <dimension ref="B1:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -1108,8 +1124,20 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -1120,7 +1148,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1131,7 +1159,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1142,7 +1170,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -1153,7 +1181,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -1164,7 +1192,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1175,7 +1203,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -1186,7 +1214,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -1197,7 +1225,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -1208,7 +1236,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1219,7 +1247,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -1230,7 +1258,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1241,7 +1269,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13">
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -1252,7 +1280,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -1263,7 +1291,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -1274,7 +1302,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -1285,7 +1313,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -1296,7 +1324,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
         <v>29</v>
       </c>
@@ -1307,7 +1335,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -1318,7 +1346,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
         <v>31</v>
       </c>
@@ -1329,7 +1357,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -1340,7 +1368,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -1351,7 +1379,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="B24" t="s">
         <v>35</v>
       </c>
@@ -1362,7 +1390,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4">
       <c r="B25" t="s">
         <v>36</v>
       </c>
@@ -1373,7 +1401,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
         <v>37</v>
       </c>
@@ -1384,7 +1412,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
         <v>38</v>
       </c>
@@ -1395,7 +1423,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -1406,7 +1434,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4">
       <c r="B29" t="s">
         <v>40</v>
       </c>
@@ -1417,7 +1445,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
         <v>41</v>
       </c>
@@ -1428,7 +1456,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="B31" t="s">
         <v>42</v>
       </c>
@@ -1439,7 +1467,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4">
       <c r="B32" t="s">
         <v>7</v>
       </c>
@@ -1450,7 +1478,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4">
       <c r="B33" t="s">
         <v>43</v>
       </c>
@@ -1461,7 +1489,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4">
       <c r="B34" t="s">
         <v>44</v>
       </c>
@@ -1472,7 +1500,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4">
       <c r="B35" t="s">
         <v>45</v>
       </c>
@@ -1483,7 +1511,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4">
       <c r="B36" t="s">
         <v>46</v>
       </c>
@@ -1494,7 +1522,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4">
       <c r="B37" t="s">
         <v>47</v>
       </c>
@@ -1505,7 +1533,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4">
       <c r="B38" t="s">
         <v>48</v>
       </c>
@@ -1516,7 +1544,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4">
       <c r="B39" t="s">
         <v>49</v>
       </c>
@@ -1527,7 +1555,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4">
       <c r="B40" t="s">
         <v>50</v>
       </c>
@@ -1538,7 +1566,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4">
       <c r="B41" t="s">
         <v>51</v>
       </c>
@@ -1549,7 +1577,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4">
       <c r="B42" t="s">
         <v>52</v>
       </c>
@@ -1560,7 +1588,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4">
       <c r="B43" t="s">
         <v>53</v>
       </c>
@@ -1571,7 +1599,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4">
       <c r="B44" t="s">
         <v>54</v>
       </c>
@@ -1582,7 +1610,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4">
       <c r="B45" t="s">
         <v>56</v>
       </c>
@@ -1593,7 +1621,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4">
       <c r="B46" t="s">
         <v>57</v>
       </c>
@@ -1604,7 +1632,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4">
       <c r="B47" t="s">
         <v>58</v>
       </c>
@@ -1615,7 +1643,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4">
       <c r="B48" t="s">
         <v>59</v>
       </c>
@@ -1626,7 +1654,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4">
       <c r="B49" t="s">
         <v>60</v>
       </c>
@@ -1637,7 +1665,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4">
       <c r="B50" t="s">
         <v>61</v>
       </c>
@@ -1648,7 +1676,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4">
       <c r="B51" t="s">
         <v>62</v>
       </c>
@@ -1659,7 +1687,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4">
       <c r="B52" t="s">
         <v>63</v>
       </c>
@@ -1670,7 +1698,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4">
       <c r="B53" t="s">
         <v>64</v>
       </c>
@@ -1681,7 +1709,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4">
       <c r="B54" t="s">
         <v>65</v>
       </c>
@@ -1692,7 +1720,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4">
       <c r="B55" t="s">
         <v>66</v>
       </c>
@@ -1703,7 +1731,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4">
       <c r="B56" t="s">
         <v>67</v>
       </c>
@@ -1714,7 +1742,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4">
       <c r="B57" t="s">
         <v>68</v>
       </c>
@@ -1725,7 +1753,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4">
       <c r="B58" t="s">
         <v>69</v>
       </c>
@@ -1736,7 +1764,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4">
       <c r="B59" t="s">
         <v>70</v>
       </c>
@@ -1747,7 +1775,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4">
       <c r="B60" t="s">
         <v>71</v>
       </c>
@@ -1758,7 +1786,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4">
       <c r="B61" t="s">
         <v>72</v>
       </c>
@@ -1769,7 +1797,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4">
       <c r="B62" t="s">
         <v>73</v>
       </c>
@@ -1780,7 +1808,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4">
       <c r="B63" t="s">
         <v>74</v>
       </c>
@@ -1791,7 +1819,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4">
       <c r="B64" t="s">
         <v>75</v>
       </c>
@@ -1802,7 +1830,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4">
       <c r="B65" t="s">
         <v>76</v>
       </c>
@@ -1813,7 +1841,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4">
       <c r="B66" t="s">
         <v>77</v>
       </c>
@@ -1824,7 +1852,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4">
       <c r="B67" t="s">
         <v>78</v>
       </c>
@@ -1835,7 +1863,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4">
       <c r="B68" t="s">
         <v>79</v>
       </c>
@@ -1846,7 +1874,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4">
       <c r="B69" t="s">
         <v>80</v>
       </c>
@@ -1857,7 +1885,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4">
       <c r="B70" t="s">
         <v>81</v>
       </c>
@@ -1868,7 +1896,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4">
       <c r="B71" t="s">
         <v>82</v>
       </c>
@@ -1879,7 +1907,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4">
       <c r="B72" t="s">
         <v>83</v>
       </c>
@@ -1890,7 +1918,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4">
       <c r="B73" t="s">
         <v>84</v>
       </c>
@@ -1901,7 +1929,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4">
       <c r="B74" t="s">
         <v>85</v>
       </c>
@@ -1912,7 +1940,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4">
       <c r="B75" t="s">
         <v>86</v>
       </c>
@@ -1923,7 +1951,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4">
       <c r="B76" t="s">
         <v>87</v>
       </c>
@@ -1934,7 +1962,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4">
       <c r="B77" t="s">
         <v>88</v>
       </c>
@@ -1945,7 +1973,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4">
       <c r="B78" t="s">
         <v>89</v>
       </c>
@@ -1956,7 +1984,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4">
       <c r="B79" t="s">
         <v>90</v>
       </c>
@@ -1967,7 +1995,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4">
       <c r="B80" t="s">
         <v>91</v>
       </c>
@@ -1978,7 +2006,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4">
       <c r="B81" t="s">
         <v>92</v>
       </c>
@@ -1989,7 +2017,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4">
       <c r="B82" t="s">
         <v>93</v>
       </c>
@@ -2000,7 +2028,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4">
       <c r="B83" t="s">
         <v>94</v>
       </c>
@@ -2011,7 +2039,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4">
       <c r="B84" t="s">
         <v>95</v>
       </c>
@@ -2022,7 +2050,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4">
       <c r="B85" t="s">
         <v>96</v>
       </c>
@@ -2033,7 +2061,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4">
       <c r="B86" t="s">
         <v>97</v>
       </c>
@@ -2044,7 +2072,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4">
       <c r="B87" t="s">
         <v>98</v>
       </c>
@@ -2055,7 +2083,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4">
       <c r="B88" t="s">
         <v>99</v>
       </c>
@@ -2066,7 +2094,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4">
       <c r="B89" t="s">
         <v>100</v>
       </c>
@@ -2077,7 +2105,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4">
       <c r="B90" t="s">
         <v>101</v>
       </c>
@@ -2088,7 +2116,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4">
       <c r="B91" t="s">
         <v>102</v>
       </c>
@@ -2099,7 +2127,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4">
       <c r="B92" t="s">
         <v>103</v>
       </c>
@@ -2110,7 +2138,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4">
       <c r="B93" t="s">
         <v>104</v>
       </c>
@@ -2121,7 +2149,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4">
       <c r="B94" t="s">
         <v>105</v>
       </c>
@@ -2132,7 +2160,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4">
       <c r="B95" t="s">
         <v>106</v>
       </c>
@@ -2143,7 +2171,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4">
       <c r="B96" t="s">
         <v>107</v>
       </c>
@@ -2154,7 +2182,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4">
       <c r="B97" t="s">
         <v>108</v>
       </c>
@@ -2165,7 +2193,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4">
       <c r="B98" t="s">
         <v>109</v>
       </c>

--- a/檢查JS用.xlsx
+++ b/檢查JS用.xlsx
@@ -761,15 +761,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ytau</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>密碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>qwe123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yanting3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -777,7 +777,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1103,15 +1103,15 @@
   <dimension ref="B1:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -1128,16 +1128,16 @@
         <v>207</v>
       </c>
       <c r="K1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" t="s">
         <v>208</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>209</v>
       </c>
-      <c r="M1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13">
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>29</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>31</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>35</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>36</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>37</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>38</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>40</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>41</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>42</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>7</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>43</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>44</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>45</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>46</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>47</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>48</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>49</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>50</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>51</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>52</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>53</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>54</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>56</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>57</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>58</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>59</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>60</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>61</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>62</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>63</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>64</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>65</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>66</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>67</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>68</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>69</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>70</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>71</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>72</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>73</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>74</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>75</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>76</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>77</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>78</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>79</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>80</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>81</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:4">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>82</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="2:4">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>83</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="2:4">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>84</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="2:4">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>85</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="75" spans="2:4">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>86</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="2:4">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>87</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="2:4">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>88</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="2:4">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>89</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="2:4">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>90</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="2:4">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>91</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>92</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>93</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="2:4">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>94</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>95</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>96</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>97</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>98</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>99</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="89" spans="2:4">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>100</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>101</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="2:4">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>102</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>103</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="2:4">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>104</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="94" spans="2:4">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>105</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="95" spans="2:4">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>106</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="96" spans="2:4">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>107</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>108</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="2:4">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>109</v>
       </c>

--- a/檢查JS用.xlsx
+++ b/檢查JS用.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\JS檢查用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\JS檢查用\JSCheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="209">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -762,14 +762,6 @@
   </si>
   <si>
     <t>密碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qwe123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yanting3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1100,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M98"/>
+  <dimension ref="B1:L98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1103,7 @@
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -1127,17 +1119,11 @@
       <c r="J1" t="s">
         <v>207</v>
       </c>
-      <c r="K1" t="s">
-        <v>210</v>
-      </c>
       <c r="L1" t="s">
         <v>208</v>
       </c>
-      <c r="M1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1134,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1159,7 +1145,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1170,7 +1156,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -1181,7 +1167,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -1192,7 +1178,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +1189,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -1214,7 +1200,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -1225,7 +1211,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -1236,7 +1222,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1247,7 +1233,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -1258,7 +1244,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1269,7 +1255,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -1280,7 +1266,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -1291,7 +1277,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>25</v>
       </c>

--- a/檢查JS用.xlsx
+++ b/檢查JS用.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="211">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -762,6 +762,14 @@
   </si>
   <si>
     <t>密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yanting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwe123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1092,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L98"/>
+  <dimension ref="B1:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -1103,7 +1111,7 @@
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -1119,11 +1127,17 @@
       <c r="J1" t="s">
         <v>207</v>
       </c>
+      <c r="K1" t="s">
+        <v>209</v>
+      </c>
       <c r="L1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -1134,7 +1148,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1145,7 +1159,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1156,7 +1170,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -1167,7 +1181,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -1178,7 +1192,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1189,7 +1203,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -1200,7 +1214,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -1211,7 +1225,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -1222,7 +1236,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1233,7 +1247,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -1244,7 +1258,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1255,7 +1269,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -1266,7 +1280,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -1277,7 +1291,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>25</v>
       </c>
